--- a/fhir/ig/urgencia/CodeSystem-indicacion-traslado-otro-centro.xlsx
+++ b/fhir/ig/urgencia/CodeSystem-indicacion-traslado-otro-centro.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T17:49:18-04:00</t>
+    <t>2024-08-29T09:57:29-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/urgencia/CodeSystem-indicacion-traslado-otro-centro.xlsx
+++ b/fhir/ig/urgencia/CodeSystem-indicacion-traslado-otro-centro.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://proceso-urgencia.minsal.cl/CodeSystem/indicacion-traslado-otro-centro</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/urgencia/CodeSystem/indicacion-traslado-otro-centro</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-29T09:57:29-04:00</t>
+    <t>2024-11-07T14:38:19-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>ChileData</t>
+    <t>Unidad de Interoperabilidad - MINSAL</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>ChileData (http://chiledata.cl)</t>
+    <t>Unidad de Interoperabilidad - MINSAL (https://interoperabilidad.minsal.cl)</t>
   </si>
   <si>
     <t>Roberto Araneda (roberto.araneda@chiledata.cl(work))</t>
@@ -84,7 +84,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t/>
+    <t>Chile</t>
   </si>
   <si>
     <t>Description</t>

--- a/fhir/ig/urgencia/CodeSystem-indicacion-traslado-otro-centro.xlsx
+++ b/fhir/ig/urgencia/CodeSystem-indicacion-traslado-otro-centro.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T14:38:19-03:00</t>
+    <t>2024-12-13T10:10:51-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/urgencia/CodeSystem-indicacion-traslado-otro-centro.xlsx
+++ b/fhir/ig/urgencia/CodeSystem-indicacion-traslado-otro-centro.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T10:10:51-03:00</t>
+    <t>2024-12-16T14:50:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Case Sensitive</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>Value Set (all codes)</t>
@@ -420,53 +423,53 @@
         <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -484,39 +487,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2"/>
     </row>

--- a/fhir/ig/urgencia/CodeSystem-indicacion-traslado-otro-centro.xlsx
+++ b/fhir/ig/urgencia/CodeSystem-indicacion-traslado-otro-centro.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T14:50:05-03:00</t>
+    <t>2024-12-17T10:22:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
